--- a/03-Project/00-UseCaseScenario/Modul_2_Use_Case_Story.xlsx
+++ b/03-Project/00-UseCaseScenario/Modul_2_Use_Case_Story.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batuh\OneDrive\Masaüstü\BLM3722_Proje\BLM3722_Software_Engineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batuh\OneDrive\Masaüstü\BLM3722_Proje\BLM3722_Software_Engineering\03-Project\00-UseCaseScenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8973073C-A6EC-42FB-8927-19AC6EA0ED95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB062D5-AE7E-492C-9A5B-F785BC8F457D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0AA77009-6167-4E3B-8B35-DD9C6568544C}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0AA77009-6167-4E3B-8B35-DD9C6568544C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,14 +135,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,7 +461,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,91 +472,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A7:A8"/>
@@ -565,12 +571,6 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/03-Project/00-UseCaseScenario/Modul_2_Use_Case_Story.xlsx
+++ b/03-Project/00-UseCaseScenario/Modul_2_Use_Case_Story.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batuh\OneDrive\Masaüstü\BLM3722_Proje\BLM3722_Software_Engineering\03-Project\00-UseCaseScenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB062D5-AE7E-492C-9A5B-F785BC8F457D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F46000-F6F2-405B-9596-B25C51E907B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0AA77009-6167-4E3B-8B35-DD9C6568544C}"/>
   </bookViews>
@@ -73,11 +73,6 @@
     <t>Şube veya derslik bilgisi girilir. Kayıt yapılır, işlem sonlandırılır.</t>
   </si>
   <si>
-    <t>1) Sistem yöneticisi şube bilgisi mi derslik bilgisi mi gireceğini seçer. 
-2) Şube bilgisi girişi seçilmiş ise şubeye ait ad, sicil numarası, adres, ulaşım, iletişim, toplam derslik kapasitesi ve sosyal olanaklar bilgilerini girer.
-3) Derslik bilgisi girişi seçilmiş ise dersliğe ait ad, kapasite bilgilerini ve varsa o sınıfta yapılan derslerin bilgisini girer.</t>
-  </si>
-  <si>
     <t>2a) Geçersiz bir sicil numarası girilmiş ise 
        1) "Geçersiz sicil numarası" mesajı gösterilir.
        2) 2. adımın tekrar edilmesi beklenir.
@@ -90,6 +85,13 @@
 3b) Dersliğe girilen ders, aynı derslikte bir çakışma yaratıyorsa
        1) "İlgili saatte derslikte ders bulunmaktadır" mesajı gösterilir.
        2) 3. adımın tekrar edilmesi beklenir.</t>
+  </si>
+  <si>
+    <t>1) Sistem yöneticisi şube bilgisi mi derslik bilgisi mi gireceğini seçer. 
+2) Şube bilgisi girişi seçilmiş ise şubeye ait ad, sicil numarası, adres, ulaşım, iletişim, toplam derslik kapasitesi ve sosyal olanaklar bilgilerini girer.
+3) Derslik bilgisi girişi seçilmiş ise dersliğe ait ad, kapasite bilgilerini ve varsa o sınıfta yapılan derslerin bilgisini girer.
+4) Kaydet tuşuna basılır.
+5) Kayıt işlemi sonlandırılır.</t>
   </si>
 </sst>
 </file>
@@ -136,13 +138,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A25FD3-4859-4EDE-ABFA-48E46259D9E4}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +474,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -480,11 +482,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -492,11 +494,11 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -504,11 +506,11 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -516,11 +518,11 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -528,41 +530,35 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A7:A8"/>
@@ -571,6 +567,12 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/03-Project/00-UseCaseScenario/Modul_2_Use_Case_Story.xlsx
+++ b/03-Project/00-UseCaseScenario/Modul_2_Use_Case_Story.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batuh\OneDrive\Masaüstü\BLM3722_Proje\BLM3722_Software_Engineering\03-Project\00-UseCaseScenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F46000-F6F2-405B-9596-B25C51E907B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A0C5C1-0938-40AA-A36D-65F7C82FAD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0AA77009-6167-4E3B-8B35-DD9C6568544C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0AA77009-6167-4E3B-8B35-DD9C6568544C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Kullanım Senaryosu:</t>
   </si>
@@ -70,28 +70,28 @@
     <t>Sistem yöneticisinin kimliği doğrulanır.</t>
   </si>
   <si>
-    <t>Şube veya derslik bilgisi girilir. Kayıt yapılır, işlem sonlandırılır.</t>
-  </si>
-  <si>
-    <t>2a) Geçersiz bir sicil numarası girilmiş ise 
+    <t>Şube ve derslik bilgisi girilir. Kayıt yapılır, işlem sonlandırılır.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1) Şubeye ait ad, sicil numarası, adres, ulaşım, iletişim, toplam derslik kapasitesi ve sosyal olanaklar bilgilerini girer.
+2) Dersliğe ait ad ve kapasite bilgilerini girer.
+3) Kaydet tuşuna basılır.
+4) Kayıt işlemi sonlandırılır.</t>
+  </si>
+  <si>
+    <t>1a) Geçersiz bir sicil numarası girilmiş ise 
        1) "Geçersiz sicil numarası" mesajı gösterilir.
        2) 2. adımın tekrar edilmesi beklenir.
-2b) Herhangi bir bilgi boş bırakılmış ise
+1b) Herhangi bir bilgi boş bırakılmış ise
        1) İlgili bilgiye ait "Bilgi kısmı boş bırakılamaz" mesajı gösterilir.
        2) 2. adımın tekrar edilmesi beklenir.
-3a) Şubede bulunmayan bir derslik adı girilmiş ise
+2a) Derslik bilgileri formata uygun şekilde girilmemiş ise.
        1) "İlgili derslik bu şubede yer almamaktadır" mesajı gösterilir.
-       2) 3. adımın tekrar edilmesi beklenir.
-3b) Dersliğe girilen ders, aynı derslikte bir çakışma yaratıyorsa
-       1) "İlgili saatte derslikte ders bulunmaktadır" mesajı gösterilir.
        2) 3. adımın tekrar edilmesi beklenir.</t>
   </si>
   <si>
-    <t>1) Sistem yöneticisi şube bilgisi mi derslik bilgisi mi gireceğini seçer. 
-2) Şube bilgisi girişi seçilmiş ise şubeye ait ad, sicil numarası, adres, ulaşım, iletişim, toplam derslik kapasitesi ve sosyal olanaklar bilgilerini girer.
-3) Derslik bilgisi girişi seçilmiş ise dersliğe ait ad, kapasite bilgilerini ve varsa o sınıfta yapılan derslerin bilgisini girer.
-4) Kaydet tuşuna basılır.
-5) Kayıt işlemi sonlandırılır.</t>
+    <t>Varsayım: Derslik adında yalnızca büyük harf, İngilizce karakter yer almalıdır. Kapasite bilgi ise sadece tam sayı türünden olmalıdır.</t>
   </si>
 </sst>
 </file>
@@ -138,13 +138,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -460,105 +460,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A25FD3-4859-4EDE-ABFA-48E46259D9E4}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="2" max="2" width="69" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="107.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="206.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
       <c r="B14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A7:A8"/>
@@ -567,12 +576,6 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/03-Project/00-UseCaseScenario/Modul_2_Use_Case_Story.xlsx
+++ b/03-Project/00-UseCaseScenario/Modul_2_Use_Case_Story.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\batuh\OneDrive\Masaüstü\BLM3722_Proje\BLM3722_Software_Engineering\03-Project\00-UseCaseScenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A0C5C1-0938-40AA-A36D-65F7C82FAD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156CF548-67A9-47F3-A248-41CB4AD2D313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0AA77009-6167-4E3B-8B35-DD9C6568544C}"/>
   </bookViews>
@@ -67,31 +67,34 @@
     <t>İlgili 1: Sistem yöneticisi. İstediği şube ve derslik bilgilerini hatasız bir şekilde girebilmeyi ve güncelleyebilmeyi bekler.</t>
   </si>
   <si>
-    <t>Sistem yöneticisinin kimliği doğrulanır.</t>
-  </si>
-  <si>
     <t>Şube ve derslik bilgisi girilir. Kayıt yapılır, işlem sonlandırılır.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-1) Şubeye ait ad, sicil numarası, adres, ulaşım, iletişim, toplam derslik kapasitesi ve sosyal olanaklar bilgilerini girer.
-2) Dersliğe ait ad ve kapasite bilgilerini girer.
-3) Kaydet tuşuna basılır.
-4) Kayıt işlemi sonlandırılır.</t>
-  </si>
-  <si>
-    <t>1a) Geçersiz bir sicil numarası girilmiş ise 
+    <t>Varsayım: Derslik adında yalnızca büyük harf, İngilizce karakter yer almalıdır. Kapasite bilgi ise sadece tam sayı türünden olmalıdır.</t>
+  </si>
+  <si>
+    <t>Yeni şube ve derslik açma talebi gelir.</t>
+  </si>
+  <si>
+    <t>1) Sistem yöneticisi sisteme giriş yapar.
+2) Şubeye ait ad, sicil numarası, adres, ulaşım, iletişim, toplam derslik kapasitesi ve sosyal olanaklar bilgilerini girer.
+3) Dersliğe ait ad ve kapasite bilgilerini girer.
+4) Kaydet tuşuna basılır.
+5) Kayıt işlemi sonlandırılır.</t>
+  </si>
+  <si>
+    <t>1) Yanlış kullanıcı adı/şifre girilmiş ise
+       1) "Yanlış kullanıcı adı/şifre girildi".
+       2) 1. adımın tekrar edilmesi beklenir.
+2a) Geçersiz bir sicil numarası girilmiş ise 
        1) "Geçersiz sicil numarası" mesajı gösterilir.
        2) 2. adımın tekrar edilmesi beklenir.
-1b) Herhangi bir bilgi boş bırakılmış ise
+2b) Herhangi bir bilgi boş bırakılmış ise
        1) İlgili bilgiye ait "Bilgi kısmı boş bırakılamaz" mesajı gösterilir.
        2) 2. adımın tekrar edilmesi beklenir.
-2a) Derslik bilgileri formata uygun şekilde girilmemiş ise.
+3a) Derslik bilgileri formata uygun şekilde girilmemiş ise.
        1) "İlgili derslik bu şubede yer almamaktadır" mesajı gösterilir.
        2) 3. adımın tekrar edilmesi beklenir.</t>
-  </si>
-  <si>
-    <t>Varsayım: Derslik adında yalnızca büyük harf, İngilizce karakter yer almalıdır. Kapasite bilgi ise sadece tam sayı türünden olmalıdır.</t>
   </si>
 </sst>
 </file>
@@ -138,13 +141,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,7 +466,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,7 +477,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -482,11 +485,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
+      <c r="A2" s="1"/>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -494,11 +497,11 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -506,68 +509,62 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="206.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" ht="206.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A7:A8"/>
@@ -576,6 +573,12 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
